--- a/meetrapporten/working/week1 Tijden.xlsx
+++ b/meetrapporten/working/week1 Tijden.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel\Documents\GitHub\Vision-Pawel-Wibren\meetrapporten\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wibren\Documents\GitHub\Vision-Pawel-Wibren\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,27 +26,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>2Ddebug</t>
+    <t>2D Release</t>
   </si>
   <si>
-    <t>1Ddebug</t>
+    <t>2D Debug</t>
   </si>
   <si>
-    <t>1D relese</t>
+    <t>1D Release</t>
   </si>
   <si>
-    <t>2Drelese</t>
+    <t>1D Debug</t>
   </si>
   <si>
-    <t>gem</t>
+    <t>Gemmidelde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,11 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,7 +105,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -107,63 +116,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Array test</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -223,9 +176,29 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1D Debug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1D Release</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2D Debug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2D Release</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$23,Sheet1!$C$23,Sheet1!$D$23,Sheet1!$E$23)</c:f>
+              <c:f>Sheet1!$B$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -255,75 +228,17 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="338821552"/>
-        <c:axId val="338818024"/>
+        <c:axId val="289003232"/>
+        <c:axId val="289002056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="338821552"/>
+        <c:axId val="289003232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="338818024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="338818024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -352,10 +267,125 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338821552"/>
+        <c:crossAx val="289002056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289002056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Tijd in microseconden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289003232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -393,7 +423,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -950,7 +980,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -974,9 +1004,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1014,7 +1044,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1086,7 +1116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1236,26 +1266,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B2" sqref="B2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -1538,29 +1574,30 @@
         <v>10558</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23">
-        <f xml:space="preserve"> (SUM(B3:B22)/20)</f>
+      <c r="B24">
+        <f>AVERAGE(B3:B23)</f>
         <v>3091.15</v>
       </c>
-      <c r="C23">
-        <f xml:space="preserve"> (SUM(C3:C22)/20)</f>
+      <c r="C24">
+        <f>AVERAGE(C3:C23)</f>
         <v>121.65</v>
       </c>
-      <c r="D23">
-        <f xml:space="preserve"> (SUM(D3:D22)/20)</f>
+      <c r="D24">
+        <f>AVERAGE(D3:D23)</f>
         <v>14697</v>
       </c>
-      <c r="E23">
-        <f xml:space="preserve"> (SUM(E3:E22)/20)</f>
+      <c r="E24">
+        <f>AVERAGE(E3:E23)</f>
         <v>10686.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>